--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:19:22+00:00</t>
+    <t>2023-02-02T08:17:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T08:17:06+00:00</t>
+    <t>2023-02-02T08:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
